--- a/teaching/traditional_assets/database/data/iceland/iceland_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/iceland/iceland_bank_money_center.xlsx
@@ -591,13 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>-0.0304</v>
+        <v>-0.0745</v>
       </c>
       <c r="E2">
-        <v>-0.264</v>
+        <v>-0.34</v>
       </c>
       <c r="F2">
-        <v>0.0491</v>
+        <v>0.0638</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -606,103 +606,97 @@
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0.003176353753722683</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>0.002380254964814973</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>44</v>
+        <v>28.4</v>
       </c>
       <c r="L2">
-        <v>0.1209788287049766</v>
+        <v>0.08964646464646464</v>
       </c>
       <c r="M2">
-        <v>73.3</v>
+        <v>55.4</v>
       </c>
       <c r="N2">
-        <v>0.05786233028102305</v>
+        <v>0.04315650074004829</v>
       </c>
       <c r="O2">
-        <v>1.665909090909091</v>
+        <v>1.950704225352113</v>
       </c>
       <c r="P2">
-        <v>73.3</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>0.05786233028102305</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>1.665909090909091</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="T2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U2">
-        <v>1153.8</v>
+        <v>834.4</v>
       </c>
       <c r="V2">
-        <v>0.9107988632775498</v>
+        <v>0.6499961050089584</v>
       </c>
       <c r="W2">
-        <v>0.02453030049618108</v>
+        <v>0.01792929292929293</v>
       </c>
       <c r="X2">
-        <v>0.09757427861989762</v>
+        <v>0.07889947230462449</v>
       </c>
       <c r="Y2">
-        <v>-0.07304397812371655</v>
+        <v>-0.06097017937533156</v>
       </c>
       <c r="Z2">
-        <v>0.0828478748420096</v>
+        <v>0.08023320307256698</v>
       </c>
       <c r="AA2">
-        <v>0.0001971990654170628</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.04941757582624414</v>
+        <v>0.04422734009395678</v>
       </c>
       <c r="AC2">
-        <v>-0.04922037676082708</v>
+        <v>-0.04422734009395678</v>
       </c>
       <c r="AD2">
-        <v>3523.7</v>
+        <v>2600.3</v>
       </c>
       <c r="AE2">
-        <v>9.673800698855301</v>
+        <v>0</v>
       </c>
       <c r="AF2">
-        <v>3533.373800698855</v>
+        <v>2600.3</v>
       </c>
       <c r="AG2">
-        <v>2379.573800698855</v>
+        <v>1765.9</v>
       </c>
       <c r="AH2">
-        <v>0.7360928890084006</v>
+        <v>0.6694902162718847</v>
       </c>
       <c r="AI2">
-        <v>0.6903178443965901</v>
+        <v>0.6515899466259052</v>
       </c>
       <c r="AJ2">
-        <v>0.6525863586017406</v>
+        <v>0.5790595487932844</v>
       </c>
       <c r="AK2">
-        <v>0.600194094222684</v>
+        <v>0.559484206190793</v>
       </c>
       <c r="AL2">
         <v>0</v>
       </c>
       <c r="AM2">
         <v>0</v>
-      </c>
-      <c r="AN2">
-        <v>1140.355987055016</v>
-      </c>
-      <c r="AP2">
-        <v>770.0886086404062</v>
       </c>
     </row>
     <row r="3">
@@ -713,7 +707,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Arion banka hf. (ICSE:ARION)</t>
+          <t>Arion banki hf. (ICSE:ARION)</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -722,13 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>-0.0304</v>
+        <v>-0.0745</v>
       </c>
       <c r="E3">
-        <v>-0.264</v>
+        <v>-0.34</v>
       </c>
       <c r="F3">
-        <v>0.0491</v>
+        <v>0.0638</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -737,103 +731,97 @@
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0.003176353753722683</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>0.002380254964814973</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>44</v>
+        <v>28.4</v>
       </c>
       <c r="L3">
-        <v>0.1209788287049766</v>
+        <v>0.08964646464646464</v>
       </c>
       <c r="M3">
-        <v>73.3</v>
+        <v>55.4</v>
       </c>
       <c r="N3">
-        <v>0.05786233028102305</v>
+        <v>0.04315650074004829</v>
       </c>
       <c r="O3">
-        <v>1.665909090909091</v>
+        <v>1.950704225352113</v>
       </c>
       <c r="P3">
-        <v>73.3</v>
+        <v>-0</v>
       </c>
       <c r="Q3">
-        <v>0.05786233028102305</v>
+        <v>-0</v>
       </c>
       <c r="R3">
-        <v>1.665909090909091</v>
+        <v>-0</v>
       </c>
       <c r="S3">
-        <v>0</v>
+        <v>55.4</v>
       </c>
       <c r="T3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="U3">
-        <v>1153.8</v>
+        <v>834.4</v>
       </c>
       <c r="V3">
-        <v>0.9107988632775498</v>
+        <v>0.6499961050089584</v>
       </c>
       <c r="W3">
-        <v>0.02453030049618108</v>
+        <v>0.01792929292929293</v>
       </c>
       <c r="X3">
-        <v>0.09757427861989762</v>
+        <v>0.07889947230462449</v>
       </c>
       <c r="Y3">
-        <v>-0.07304397812371655</v>
+        <v>-0.06097017937533156</v>
       </c>
       <c r="Z3">
-        <v>0.0828478748420096</v>
+        <v>0.08023320307256698</v>
       </c>
       <c r="AA3">
-        <v>0.0001971990654170628</v>
+        <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.04941757582624414</v>
+        <v>0.04422734009395678</v>
       </c>
       <c r="AC3">
-        <v>-0.04922037676082708</v>
+        <v>-0.04422734009395678</v>
       </c>
       <c r="AD3">
-        <v>3523.7</v>
+        <v>2600.3</v>
       </c>
       <c r="AE3">
-        <v>9.673800698855301</v>
+        <v>0</v>
       </c>
       <c r="AF3">
-        <v>3533.373800698855</v>
+        <v>2600.3</v>
       </c>
       <c r="AG3">
-        <v>2379.573800698855</v>
+        <v>1765.9</v>
       </c>
       <c r="AH3">
-        <v>0.7360928890084006</v>
+        <v>0.6694902162718847</v>
       </c>
       <c r="AI3">
-        <v>0.6903178443965901</v>
+        <v>0.6515899466259052</v>
       </c>
       <c r="AJ3">
-        <v>0.6525863586017406</v>
+        <v>0.5790595487932844</v>
       </c>
       <c r="AK3">
-        <v>0.600194094222684</v>
+        <v>0.559484206190793</v>
       </c>
       <c r="AL3">
         <v>0</v>
       </c>
       <c r="AM3">
         <v>0</v>
-      </c>
-      <c r="AN3">
-        <v>1140.355987055016</v>
-      </c>
-      <c r="AP3">
-        <v>770.0886086404062</v>
       </c>
     </row>
   </sheetData>
